--- a/Resources/datapool/DatosFindFlight.xlsx
+++ b/Resources/datapool/DatosFindFlight.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Nombre del elemento</t>
   </si>
@@ -33,6 +33,15 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>Combo box Departing From</t>
@@ -210,18 +219,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.8814814814815"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.5851851851852"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.062962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="10.5296296296296"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.14814814814815"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="5.03703703703704"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.85185185185185"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="10.5296296296296"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -232,6 +243,8 @@
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -241,6 +254,8 @@
         <v>3</v>
       </c>
       <c r="C2" s="3"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -249,77 +264,85 @@
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3"/>
     </row>
